--- a/data/trans_orig/Q02D_LAB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,55</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,49</t>
+          <t>4,24; 11,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,24</t>
+          <t>5,09; 9,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,19</t>
+          <t>5,23; 8,52</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>6,77</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,23</t>
+          <t>4,54; 6,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 8,27</t>
+          <t>6,94; 8,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 7,22</t>
+          <t>6,23; 7,45</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>7,83</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,97</t>
+          <t>5,43; 10,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 9,52</t>
+          <t>7,14; 9,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 9,07</t>
+          <t>6,86; 9,29</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>6,95</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 6,58</t>
+          <t>5,05; 6,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 8,04</t>
+          <t>7,05; 8,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,29</t>
+          <t>6,44; 7,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q02D_LAB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo dedicado de lunes a viernes al cuidado de las personas del hogar que lo necesitan por parte de la persona entrevistada</t>
+          <t>Número medio de horas diarias, de lunes a viernes, que dedica la persona entrevistada a cuidar a las personas del hogar que lo necesitan</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 6,95</t>
+          <t>4,85; 7,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 6,14</t>
+          <t>4,95; 6,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,42</t>
+          <t>5,27; 7,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,21</t>
+          <t>4,29; 11,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 6,73</t>
+          <t>5,37; 6,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 6,87</t>
+          <t>5,97; 6,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 9,29</t>
+          <t>7,27; 9,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,44</t>
+          <t>4,85; 9,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 6,5</t>
+          <t>5,4; 6,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 6,49</t>
+          <t>5,73; 6,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 8,26</t>
+          <t>6,72; 8,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,52</t>
+          <t>5,13; 8,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,57</t>
+          <t>2,78; 3,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 4,95</t>
+          <t>4,34; 4,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 7,04</t>
+          <t>6,04; 7,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,5</t>
+          <t>4,57; 6,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 6,46</t>
+          <t>5,48; 6,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 6,94</t>
+          <t>6,41; 6,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 9,01</t>
+          <t>8,06; 8,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,49</t>
+          <t>6,97; 8,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 5,15</t>
+          <t>4,44; 5,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 6,02</t>
+          <t>5,62; 6,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 8,06</t>
+          <t>7,32; 8,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 7,45</t>
+          <t>6,24; 7,4</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,01</t>
+          <t>2,72; 3,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 4,81</t>
+          <t>3,8; 4,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,31</t>
+          <t>4,9; 6,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,55</t>
+          <t>5,42; 10,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,08</t>
+          <t>4,47; 6,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 7,41</t>
+          <t>6,19; 7,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 9,49</t>
+          <t>7,82; 9,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 9,62</t>
+          <t>7,25; 9,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 4,95</t>
+          <t>3,89; 4,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,07</t>
+          <t>5,28; 6,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 8,06</t>
+          <t>6,83; 8,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 9,29</t>
+          <t>6,82; 9,28</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,01</t>
+          <t>3,34; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 4,98</t>
+          <t>4,48; 4,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 6,67</t>
+          <t>5,89; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,88</t>
+          <t>5,07; 6,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,17</t>
+          <t>5,5; 6,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 6,83</t>
+          <t>6,4; 6,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 8,86</t>
+          <t>8,09; 8,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 8,23</t>
+          <t>7,06; 8,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 5,26</t>
+          <t>4,71; 5,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,03</t>
+          <t>5,7; 6,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,87</t>
+          <t>7,31; 7,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 7,49</t>
+          <t>6,44; 7,52</t>
         </is>
       </c>
     </row>
